--- a/ERD Research.xlsx
+++ b/ERD Research.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e2e9728253ef35c/Documents/sql-challenge/EmployeeSQL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e2e9728253ef35c/Documents/sql-challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0082C1A3-AC08-4FB0-A02C-3FDFB6294389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20DC1231-1F0B-4A24-8D3F-B07FDADA1D6F}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{0082C1A3-AC08-4FB0-A02C-3FDFB6294389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDFB5149-EA9A-4748-8106-0A5E55E39E65}"/>
   <bookViews>
-    <workbookView xWindow="-18885" yWindow="-105" windowWidth="17280" windowHeight="8970" xr2:uid="{626BB903-EB61-4B30-A8C1-C1A43630F9AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{626BB903-EB61-4B30-A8C1-C1A43630F9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>departments</t>
   </si>
   <si>
-    <t>dept_managerdept_no</t>
-  </si>
-  <si>
     <t>emp_title_id</t>
   </si>
   <si>
@@ -90,7 +87,10 @@
     <t>title</t>
   </si>
   <si>
-    <t xml:space="preserve">git </t>
+    <t>dept_manager</t>
+  </si>
+  <si>
+    <t>Nulls?</t>
   </si>
 </sst>
 </file>
@@ -146,11 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,109 +466,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46FFBB8-2CE5-413D-B8DC-DF05C5EE6A00}">
-  <dimension ref="A2:I9"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
